--- a/data/labeled_claims/renewable_freshwater_per_capita_claims.xlsx
+++ b/data/labeled_claims/renewable_freshwater_per_capita_claims.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27217"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="332">
   <si>
     <t>&lt;location&gt;Albania&lt;/location&gt; Renewable internal freshwater resources per capita -LRB- cubic meters -RRB- 2011 : &lt;number&gt;8,529.17&lt;/number&gt; , Cubic meters</t>
   </si>
@@ -1020,6 +1020,9 @@
   </si>
   <si>
     <t>extracted_value</t>
+  </si>
+  <si>
+    <t>sentence</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1401,7 @@
   <dimension ref="A1:K108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1410,6 +1413,9 @@
       <c r="A1" t="s">
         <v>326</v>
       </c>
+      <c r="B1" t="s">
+        <v>331</v>
+      </c>
       <c r="C1" t="s">
         <v>327</v>
       </c>

--- a/data/labeled_claims/renewable_freshwater_per_capita_claims.xlsx
+++ b/data/labeled_claims/renewable_freshwater_per_capita_claims.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="333">
   <si>
     <t>&lt;location&gt;Albania&lt;/location&gt; Renewable internal freshwater resources per capita -LRB- cubic meters -RRB- 2011 : &lt;number&gt;8,529.17&lt;/number&gt; , Cubic meters</t>
   </si>
@@ -1023,6 +1023,9 @@
   </si>
   <si>
     <t>sentence</t>
+  </si>
+  <si>
+    <t>dep</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1404,7 @@
   <dimension ref="A1:K108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1425,6 +1428,9 @@
       <c r="F1" t="s">
         <v>329</v>
       </c>
+      <c r="H1" t="s">
+        <v>332</v>
+      </c>
       <c r="I1" t="s">
         <v>330</v>
       </c>
